--- a/src/main/resources/用户导出模板.xlsx
+++ b/src/main/resources/用户导出模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3734961F-7E97-4844-9C64-E19919D251E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E7DD5-8114-4851-83CC-723A2CC26DAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -85,10 +100,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -181,15 +196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -218,7 +233,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9526" y="28576"/>
+          <a:off x="9525" y="9526"/>
           <a:ext cx="590549" cy="524932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -497,7 +512,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,28 +522,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
